--- a/public/templates/product_import_template.xlsx
+++ b/public/templates/product_import_template.xlsx
@@ -1,44 +1,363 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
   <sheets>
-    <sheet name="I want to download the sample e" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>SubCategoryName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>NumberOfItems</t>
+  </si>
+  <si>
+    <t>QuantityPerItem</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>StockedDate</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>LowStockThreshold</t>
+  </si>
+  <si>
+    <t>L'Oréal Professionnel</t>
+  </si>
+  <si>
+    <t>Wella</t>
+  </si>
+  <si>
+    <t>Schwarzkopf</t>
+  </si>
+  <si>
+    <t>Moroccanoil</t>
+  </si>
+  <si>
+    <t>Olaplex</t>
+  </si>
+  <si>
+    <t>Redken</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>TIGI</t>
+  </si>
+  <si>
+    <t>Davines</t>
+  </si>
+  <si>
+    <t>Kérastase</t>
+  </si>
+  <si>
+    <t>Aveda</t>
+  </si>
+  <si>
+    <t>Paul Mitchell</t>
+  </si>
+  <si>
+    <t>Joico</t>
+  </si>
+  <si>
+    <t>Goldwell</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Conair</t>
+  </si>
+  <si>
+    <t>Tweezerman</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Demi-Permanent Color</t>
+  </si>
+  <si>
+    <t>Hair Spray</t>
+  </si>
+  <si>
+    <t>Hair Oil</t>
+  </si>
+  <si>
+    <t>Hair Treatment</t>
+  </si>
+  <si>
+    <t>Conditioner</t>
+  </si>
+  <si>
+    <t>Hair Mask</t>
+  </si>
+  <si>
+    <t>Hair Wax</t>
+  </si>
+  <si>
+    <t>Serum</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
+    <t>Styling Spray</t>
+  </si>
+  <si>
+    <t>Hair Paste</t>
+  </si>
+  <si>
+    <t>Flat Iron</t>
+  </si>
+  <si>
+    <t>Hair Dryer</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Absolut Repair Gold Quinoa Shampoo</t>
+  </si>
+  <si>
+    <t>Color Touch Demi 7/0</t>
+  </si>
+  <si>
+    <t>Osis+ Texture Craft Spray</t>
+  </si>
+  <si>
+    <t>Moroccanoil Treatment</t>
+  </si>
+  <si>
+    <t>No.3 Hair Perfector</t>
+  </si>
+  <si>
+    <t>All Soft Conditioner</t>
+  </si>
+  <si>
+    <t>Biolage Hydrasource Mask</t>
+  </si>
+  <si>
+    <t>Bed Head Manipulator</t>
+  </si>
+  <si>
+    <t>Oi All in One Milk</t>
+  </si>
+  <si>
+    <t>Elixir Ultime Oil Serum</t>
+  </si>
+  <si>
+    <t>Shampure Shampoo</t>
+  </si>
+  <si>
+    <t>Tea Tree Special Conditioner</t>
+  </si>
+  <si>
+    <t>Vibrant Deep Red</t>
+  </si>
+  <si>
+    <t>StyleSign Ultra Volume Booster</t>
+  </si>
+  <si>
+    <t>Craft Clay</t>
+  </si>
+  <si>
+    <t>Ceramic Hairstyling Iron</t>
+  </si>
+  <si>
+    <t>1875 Watt Salon Performance</t>
+  </si>
+  <si>
+    <t>Mini Hair Scissors</t>
+  </si>
+  <si>
+    <t>LP-AR-SH-300</t>
+  </si>
+  <si>
+    <t>WE-CT-DP-70</t>
+  </si>
+  <si>
+    <t>SK-OS-TC-300</t>
+  </si>
+  <si>
+    <t>MO-MO-TT-100</t>
+  </si>
+  <si>
+    <t>OL-HP-3-100</t>
+  </si>
+  <si>
+    <t>RE-AS-CN-250</t>
+  </si>
+  <si>
+    <t>MA-BS-HM-200</t>
+  </si>
+  <si>
+    <t>TI-BH-MA-85</t>
+  </si>
+  <si>
+    <t>DA-OI-MK-250</t>
+  </si>
+  <si>
+    <t>KE-EU-OS-100</t>
+  </si>
+  <si>
+    <t>AV-SP-SH-250</t>
+  </si>
+  <si>
+    <t>PM-TT-CN-300</t>
+  </si>
+  <si>
+    <t>JO-VD-CL-60</t>
+  </si>
+  <si>
+    <t>GW-SG-UV-200</t>
+  </si>
+  <si>
+    <t>SE-CR-PA-150</t>
+  </si>
+  <si>
+    <t>CH-CF-IR-001</t>
+  </si>
+  <si>
+    <t>CO-HD-DR-1875</t>
+  </si>
+  <si>
+    <t>TW-MS-SC-040</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2027-07-04</t>
+  </si>
+  <si>
+    <t>2026-12-31</t>
+  </si>
+  <si>
+    <t>2026-06-12</t>
+  </si>
+  <si>
+    <t>2027-07-01</t>
+  </si>
+  <si>
+    <t>2027-07-05</t>
+  </si>
+  <si>
+    <t>2027-06-18</t>
+  </si>
+  <si>
+    <t>2027-06-28</t>
+  </si>
+  <si>
+    <t>2027-06-10</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,18 +380,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -151,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -186,7 +522,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -221,16 +556,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -352,244 +691,727 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>BrandName</v>
-      </c>
-      <c r="B1" t="str">
-        <v>SubCategoryName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ProductName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>SKU</v>
-      </c>
-      <c r="E1" t="str">
-        <v>ProductType</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>NumberOfItems</v>
-      </c>
-      <c r="H1" t="str">
-        <v>QuantityPerItem</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Unit</v>
-      </c>
-      <c r="J1" t="str">
-        <v>StockedDate</v>
-      </c>
-      <c r="K1" t="str">
-        <v>ExpiryDate</v>
-      </c>
-      <c r="L1" t="str">
-        <v>LowStockThreshold</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>L'Oréal Professionnel</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Absolut Repair</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Gold Quinoa Shampoo</v>
-      </c>
-      <c r="D2" t="str">
-        <v>LP-AR-SH-300</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Retail</v>
-      </c>
-      <c r="F2" t="str">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
         <v>850</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>450</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="H2" t="str">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
         <v>300</v>
       </c>
-      <c r="I2" t="str">
-        <v>ml</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2025-07-04</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2027-06-30</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>2500</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Wella</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Color Touch</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Demi-Permanent 7/0</v>
-      </c>
-      <c r="D3" t="str">
-        <v>WE-CT-DP-70</v>
-      </c>
-      <c r="E3" t="str">
-        <v>In-House</v>
-      </c>
-      <c r="F3" t="str">
-        <v>450</v>
-      </c>
-      <c r="G3" t="str">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>1200</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>900</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>750</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="str">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>1600</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>3200</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>1400</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14">
+        <v>650</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
         <v>60</v>
       </c>
-      <c r="I3" t="str">
-        <v>g</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2025-06-15</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Schwarzkopf</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Osis+</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Texture Craft Spray</v>
-      </c>
-      <c r="D4" t="str">
-        <v>SK-OS-TC-300</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Retail</v>
-      </c>
-      <c r="F4" t="str">
-        <v>999</v>
-      </c>
-      <c r="G4" t="str">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <v>300</v>
-      </c>
-      <c r="I4" t="str">
-        <v>ml</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2025-07-01</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2026-12-31</v>
-      </c>
-      <c r="L4" t="str">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>980</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <v>1100</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17">
+        <v>5500</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18">
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19">
+        <v>1800</v>
+      </c>
+      <c r="G19">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Loreal</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Soap</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Loreal Soap</v>
-      </c>
-      <c r="D5" t="str">
-        <v>LMS</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Retail</v>
-      </c>
-      <c r="F5" t="str">
-        <v>400</v>
-      </c>
-      <c r="G5" t="str">
-        <v>10</v>
-      </c>
-      <c r="H5" t="str">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="I5" t="str">
-        <v>piece</v>
-      </c>
-      <c r="J5" t="str">
-        <v>2025-07-01</v>
-      </c>
-      <c r="L5" t="str">
-        <v>10</v>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>